--- a/AVG - hodnoty/Czechia_24-25.xlsx
+++ b/AVG - hodnoty/Czechia_24-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Football/Player_Rating/AVG - hodnoty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Aplikace/player_app/AVG - hodnoty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B23B3-A833-EC4D-943D-AF17E66555FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528AC2D6-EC46-9C49-A71E-45E8DF71C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2019,10 +2019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:DL304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2381,7 +2382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>1.1333156</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>1.984818</v>
       </c>
     </row>
-    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>1.3865632000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>1.4928935999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>1.3606976</v>
       </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>1.2625383999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>1.3311716</v>
       </c>
     </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>1.9462348</v>
       </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>1.3807056</v>
       </c>
     </row>
-    <row r="14" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>1.0502271999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>1.4694400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>1.6758651</v>
       </c>
     </row>
-    <row r="17" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>1.3904748</v>
       </c>
     </row>
-    <row r="18" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>0.90331740000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>1.3760208</v>
       </c>
     </row>
-    <row r="20" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>1.5162365</v>
       </c>
     </row>
-    <row r="21" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>1.2490197999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>0.94857600000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>1.2817584</v>
       </c>
     </row>
-    <row r="25" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>1.4931053999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>1.2312209000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>1.3279825000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>1.5969555</v>
       </c>
     </row>
-    <row r="30" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -12072,7 +12073,7 @@
         <v>1.5517821000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>1.0324344999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>2.7083186000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -13074,7 +13075,7 @@
         <v>1.4419512000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>1.2299089000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>1.4871167999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>1.8148896000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>0.924786</v>
       </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>1.5867686000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>1.0860306</v>
       </c>
     </row>
-    <row r="40" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -15742,7 +15743,7 @@
         <v>1.1349</v>
       </c>
     </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>3.2453124999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>1.7001922</v>
       </c>
     </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>1.1276196000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>1.1484156000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>2.5251735000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -18087,7 +18088,7 @@
         <v>1.1731076</v>
       </c>
     </row>
-    <row r="49" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>0.85731499999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -18757,7 +18758,7 @@
         <v>1.6032390000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -19092,7 +19093,7 @@
         <v>1.6331119999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -19759,7 +19760,7 @@
         <v>0.95919779999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -20091,7 +20092,7 @@
         <v>1.7781705999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>1.7855136</v>
       </c>
     </row>
-    <row r="56" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>1.3457242</v>
       </c>
     </row>
-    <row r="57" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -21090,7 +21091,7 @@
         <v>1.4468947999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -21425,7 +21426,7 @@
         <v>1.6391808000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -21760,7 +21761,7 @@
         <v>1.2701472</v>
       </c>
     </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -22095,7 +22096,7 @@
         <v>1.5939635999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -22430,7 +22431,7 @@
         <v>1.4456016</v>
       </c>
     </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>176</v>
       </c>
@@ -22765,7 +22766,7 @@
         <v>1.7593524</v>
       </c>
     </row>
-    <row r="63" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -23100,7 +23101,7 @@
         <v>1.2804374999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -23767,7 +23768,7 @@
         <v>1.0911207000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -24437,7 +24438,7 @@
         <v>1.3334816</v>
       </c>
     </row>
-    <row r="68" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -24772,7 +24773,7 @@
         <v>2.0215295000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>183</v>
       </c>
@@ -25110,7 +25111,7 @@
         <v>2.9355536999999989</v>
       </c>
     </row>
-    <row r="70" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -25445,7 +25446,7 @@
         <v>1.51125</v>
       </c>
     </row>
-    <row r="71" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -25777,7 +25778,7 @@
         <v>1.6088</v>
       </c>
     </row>
-    <row r="72" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -26112,7 +26113,7 @@
         <v>1.2765118</v>
       </c>
     </row>
-    <row r="73" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -26447,7 +26448,7 @@
         <v>0.80381400000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -26779,7 +26780,7 @@
         <v>1.450421</v>
       </c>
     </row>
-    <row r="75" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -27446,7 +27447,7 @@
         <v>1.236183</v>
       </c>
     </row>
-    <row r="77" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -27781,7 +27782,7 @@
         <v>1.3902083999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>192</v>
       </c>
@@ -28113,7 +28114,7 @@
         <v>1.6445052</v>
       </c>
     </row>
-    <row r="79" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -28448,7 +28449,7 @@
         <v>1.820136</v>
       </c>
     </row>
-    <row r="80" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -28777,7 +28778,7 @@
         <v>1.5729139999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>195</v>
       </c>
@@ -29112,7 +29113,7 @@
         <v>1.3664871000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>196</v>
       </c>
@@ -30117,7 +30118,7 @@
         <v>1.3040590000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>199</v>
       </c>
@@ -30449,7 +30450,7 @@
         <v>1.3670802</v>
       </c>
     </row>
-    <row r="86" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -30781,7 +30782,7 @@
         <v>1.4299679999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -31122,7 +31123,7 @@
         <v>2.7619832</v>
       </c>
     </row>
-    <row r="88" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -31454,7 +31455,7 @@
         <v>1.4086692999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -31789,7 +31790,7 @@
         <v>0.93687759999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -32124,7 +32125,7 @@
         <v>1.1322810999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -32459,7 +32460,7 @@
         <v>0.95588010000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -32791,7 +32792,7 @@
         <v>1.0974906</v>
       </c>
     </row>
-    <row r="93" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -33123,7 +33124,7 @@
         <v>0.84574490000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>208</v>
       </c>
@@ -33464,7 +33465,7 @@
         <v>2.809151</v>
       </c>
     </row>
-    <row r="95" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>209</v>
       </c>
@@ -33799,7 +33800,7 @@
         <v>1.9309966999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>210</v>
       </c>
@@ -34134,7 +34135,7 @@
         <v>1.0541039999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>211</v>
       </c>
@@ -34475,7 +34476,7 @@
         <v>2.5435405000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -35142,7 +35143,7 @@
         <v>1.27857</v>
       </c>
     </row>
-    <row r="100" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -35477,7 +35478,7 @@
         <v>1.41476</v>
       </c>
     </row>
-    <row r="101" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -35812,7 +35813,7 @@
         <v>0.99331699999999989</v>
       </c>
     </row>
-    <row r="102" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -36147,7 +36148,7 @@
         <v>1.2042888</v>
       </c>
     </row>
-    <row r="103" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>217</v>
       </c>
@@ -36482,7 +36483,7 @@
         <v>1.5190091999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -36814,7 +36815,7 @@
         <v>0.78526800000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -37149,7 +37150,7 @@
         <v>1.1722239999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -37481,7 +37482,7 @@
         <v>1.80084</v>
       </c>
     </row>
-    <row r="107" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -37813,7 +37814,7 @@
         <v>1.2553692000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -38145,7 +38146,7 @@
         <v>1.3452576000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -38474,7 +38475,7 @@
         <v>1.7297534000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>224</v>
       </c>
@@ -39141,7 +39142,7 @@
         <v>1.1429152</v>
       </c>
     </row>
-    <row r="112" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>226</v>
       </c>
@@ -39476,7 +39477,7 @@
         <v>1.396652</v>
       </c>
     </row>
-    <row r="113" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -39811,7 +39812,7 @@
         <v>1.3895801999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -40146,7 +40147,7 @@
         <v>1.1807795999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -40816,7 +40817,7 @@
         <v>1.1430651000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -41151,7 +41152,7 @@
         <v>1.1399264</v>
       </c>
     </row>
-    <row r="118" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -41486,7 +41487,7 @@
         <v>1.3634244</v>
       </c>
     </row>
-    <row r="119" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -41821,7 +41822,7 @@
         <v>1.0777444</v>
       </c>
     </row>
-    <row r="120" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>234</v>
       </c>
@@ -42156,7 +42157,7 @@
         <v>1.1645513999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>235</v>
       </c>
@@ -42488,7 +42489,7 @@
         <v>1.9980671999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>236</v>
       </c>
@@ -42823,7 +42824,7 @@
         <v>1.4010822000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -43158,7 +43159,7 @@
         <v>1.7324934000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>238</v>
       </c>
@@ -43493,7 +43494,7 @@
         <v>1.4251644000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -43828,7 +43829,7 @@
         <v>1.8107712</v>
       </c>
     </row>
-    <row r="126" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>240</v>
       </c>
@@ -44163,7 +44164,7 @@
         <v>1.6559244</v>
       </c>
     </row>
-    <row r="127" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -44498,7 +44499,7 @@
         <v>1.3160982000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -45165,7 +45166,7 @@
         <v>1.3299281999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>244</v>
       </c>
@@ -45497,7 +45498,7 @@
         <v>1.38168</v>
       </c>
     </row>
-    <row r="131" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>245</v>
       </c>
@@ -45832,7 +45833,7 @@
         <v>1.189929</v>
       </c>
     </row>
-    <row r="132" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>246</v>
       </c>
@@ -46167,7 +46168,7 @@
         <v>0.91947079999999992</v>
       </c>
     </row>
-    <row r="133" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>247</v>
       </c>
@@ -46834,7 +46835,7 @@
         <v>1.4051153999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>249</v>
       </c>
@@ -47169,7 +47170,7 @@
         <v>1.4009541000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>250</v>
       </c>
@@ -47504,7 +47505,7 @@
         <v>1.417143</v>
       </c>
     </row>
-    <row r="137" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>251</v>
       </c>
@@ -47839,7 +47840,7 @@
         <v>1.7533197</v>
       </c>
     </row>
-    <row r="138" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -48174,7 +48175,7 @@
         <v>1.506753</v>
       </c>
     </row>
-    <row r="139" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -48506,7 +48507,7 @@
         <v>1.9695967999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>254</v>
       </c>
@@ -49176,7 +49177,7 @@
         <v>1.2109125000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>256</v>
       </c>
@@ -49508,7 +49509,7 @@
         <v>1.3416600000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>257</v>
       </c>
@@ -49843,7 +49844,7 @@
         <v>1.9370468000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>258</v>
       </c>
@@ -50178,7 +50179,7 @@
         <v>1.4252009000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>259</v>
       </c>
@@ -50513,7 +50514,7 @@
         <v>1.2761496000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>260</v>
       </c>
@@ -50845,7 +50846,7 @@
         <v>1.071728</v>
       </c>
     </row>
-    <row r="147" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -51180,7 +51181,7 @@
         <v>1.1582171999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>262</v>
       </c>
@@ -51847,7 +51848,7 @@
         <v>1.1797924</v>
       </c>
     </row>
-    <row r="150" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>264</v>
       </c>
@@ -52179,7 +52180,7 @@
         <v>1.3644780000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>265</v>
       </c>
@@ -52514,7 +52515,7 @@
         <v>1.365</v>
       </c>
     </row>
-    <row r="152" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>266</v>
       </c>
@@ -52849,7 +52850,7 @@
         <v>1.0049952</v>
       </c>
     </row>
-    <row r="153" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>267</v>
       </c>
@@ -53184,7 +53185,7 @@
         <v>1.6546075</v>
       </c>
     </row>
-    <row r="154" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>268</v>
       </c>
@@ -53525,7 +53526,7 @@
         <v>2.9544320000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>269</v>
       </c>
@@ -53860,7 +53861,7 @@
         <v>1.0729124999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>270</v>
       </c>
@@ -54530,7 +54531,7 @@
         <v>1.2518726</v>
       </c>
     </row>
-    <row r="158" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -54862,7 +54863,7 @@
         <v>1.5317388000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>273</v>
       </c>
@@ -55197,7 +55198,7 @@
         <v>1.6319016</v>
       </c>
     </row>
-    <row r="160" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -55532,7 +55533,7 @@
         <v>1.399413</v>
       </c>
     </row>
-    <row r="161" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>275</v>
       </c>
@@ -55867,7 +55868,7 @@
         <v>1.4089338</v>
       </c>
     </row>
-    <row r="162" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>276</v>
       </c>
@@ -56537,7 +56538,7 @@
         <v>1.1652156</v>
       </c>
     </row>
-    <row r="164" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>278</v>
       </c>
@@ -56872,7 +56873,7 @@
         <v>1.5064413000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>279</v>
       </c>
@@ -57207,7 +57208,7 @@
         <v>1.4783588999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>280</v>
       </c>
@@ -57539,7 +57540,7 @@
         <v>1.447999</v>
       </c>
     </row>
-    <row r="167" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>281</v>
       </c>
@@ -57871,7 +57872,7 @@
         <v>1.7941886</v>
       </c>
     </row>
-    <row r="168" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>282</v>
       </c>
@@ -58203,7 +58204,7 @@
         <v>1.5420216</v>
       </c>
     </row>
-    <row r="169" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>283</v>
       </c>
@@ -58538,7 +58539,7 @@
         <v>1.8427450000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>284</v>
       </c>
@@ -59208,7 +59209,7 @@
         <v>1.2876064</v>
       </c>
     </row>
-    <row r="172" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>286</v>
       </c>
@@ -59543,7 +59544,7 @@
         <v>1.074276</v>
       </c>
     </row>
-    <row r="173" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>287</v>
       </c>
@@ -59884,7 +59885,7 @@
         <v>3.2081279999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>288</v>
       </c>
@@ -60225,7 +60226,7 @@
         <v>2.7698946000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>289</v>
       </c>
@@ -60563,7 +60564,7 @@
         <v>2.7339924</v>
       </c>
     </row>
-    <row r="176" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>290</v>
       </c>
@@ -60898,7 +60899,7 @@
         <v>1.8095633</v>
       </c>
     </row>
-    <row r="177" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>291</v>
       </c>
@@ -61233,7 +61234,7 @@
         <v>1.7623143999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>292</v>
       </c>
@@ -61565,7 +61566,7 @@
         <v>1.5251416</v>
       </c>
     </row>
-    <row r="179" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>293</v>
       </c>
@@ -61897,7 +61898,7 @@
         <v>1.7696938</v>
       </c>
     </row>
-    <row r="180" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>294</v>
       </c>
@@ -62229,7 +62230,7 @@
         <v>1.8679545</v>
       </c>
     </row>
-    <row r="181" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>295</v>
       </c>
@@ -62570,7 +62571,7 @@
         <v>3.1280114999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>296</v>
       </c>
@@ -62905,7 +62906,7 @@
         <v>1.4590182</v>
       </c>
     </row>
-    <row r="183" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>297</v>
       </c>
@@ -63240,7 +63241,7 @@
         <v>1.0313323999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>298</v>
       </c>
@@ -63910,7 +63911,7 @@
         <v>1.2788447000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>300</v>
       </c>
@@ -64586,7 +64587,7 @@
         <v>1.1261836000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>302</v>
       </c>
@@ -64915,7 +64916,7 @@
         <v>1.7260705000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>303</v>
       </c>
@@ -65250,7 +65251,7 @@
         <v>1.7770045999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>304</v>
       </c>
@@ -65585,7 +65586,7 @@
         <v>1.2869769</v>
       </c>
     </row>
-    <row r="191" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>305</v>
       </c>
@@ -66261,7 +66262,7 @@
         <v>1.2202345000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>307</v>
       </c>
@@ -66590,7 +66591,7 @@
         <v>1.3548127999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>308</v>
       </c>
@@ -66922,7 +66923,7 @@
         <v>1.9509951999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>309</v>
       </c>
@@ -67592,7 +67593,7 @@
         <v>1.4923662</v>
       </c>
     </row>
-    <row r="197" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>311</v>
       </c>
@@ -67927,7 +67928,7 @@
         <v>1.8951152</v>
       </c>
     </row>
-    <row r="198" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>312</v>
       </c>
@@ -68262,7 +68263,7 @@
         <v>1.7060362</v>
       </c>
     </row>
-    <row r="199" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>313</v>
       </c>
@@ -68935,7 +68936,7 @@
         <v>1.1953457999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>315</v>
       </c>
@@ -69270,7 +69271,7 @@
         <v>1.1963592000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>316</v>
       </c>
@@ -69937,7 +69938,7 @@
         <v>0.96353100000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>318</v>
       </c>
@@ -70272,7 +70273,7 @@
         <v>1.6937561999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>319</v>
       </c>
@@ -70607,7 +70608,7 @@
         <v>1.6964079000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>320</v>
       </c>
@@ -70939,7 +70940,7 @@
         <v>1.2818666000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>321</v>
       </c>
@@ -71274,7 +71275,7 @@
         <v>1.460985</v>
       </c>
     </row>
-    <row r="208" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>322</v>
       </c>
@@ -71609,7 +71610,7 @@
         <v>1.2408235000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>323</v>
       </c>
@@ -71944,7 +71945,7 @@
         <v>1.6629522000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>324</v>
       </c>
@@ -72276,7 +72277,7 @@
         <v>1.5740164000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>325</v>
       </c>
@@ -72946,7 +72947,7 @@
         <v>1.4259275</v>
       </c>
     </row>
-    <row r="213" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>327</v>
       </c>
@@ -73281,7 +73282,7 @@
         <v>1.6346882</v>
       </c>
     </row>
-    <row r="214" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>328</v>
       </c>
@@ -73622,7 +73623,7 @@
         <v>3.0561440000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>329</v>
       </c>
@@ -73957,7 +73958,7 @@
         <v>2.8147199999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>330</v>
       </c>
@@ -74292,7 +74293,7 @@
         <v>1.6554096</v>
       </c>
     </row>
-    <row r="217" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>331</v>
       </c>
@@ -74624,7 +74625,7 @@
         <v>1.4648810000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>332</v>
       </c>
@@ -74959,7 +74960,7 @@
         <v>1.7759064</v>
       </c>
     </row>
-    <row r="219" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>333</v>
       </c>
@@ -75623,7 +75624,7 @@
         <v>1.1419805000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>335</v>
       </c>
@@ -75955,7 +75956,7 @@
         <v>1.3801600000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>336</v>
       </c>
@@ -76622,7 +76623,7 @@
         <v>1.2740275999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>338</v>
       </c>
@@ -77292,7 +77293,7 @@
         <v>1.3807815999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>340</v>
       </c>
@@ -77627,7 +77628,7 @@
         <v>1.6715603999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>341</v>
       </c>
@@ -77959,7 +77960,7 @@
         <v>1.076579</v>
       </c>
     </row>
-    <row r="228" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>342</v>
       </c>
@@ -78294,7 +78295,7 @@
         <v>1.6493424000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>343</v>
       </c>
@@ -78964,7 +78965,7 @@
         <v>1.3982939999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>345</v>
       </c>
@@ -79296,7 +79297,7 @@
         <v>1.8967225999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>346</v>
       </c>
@@ -79631,7 +79632,7 @@
         <v>1.1213951</v>
       </c>
     </row>
-    <row r="233" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>347</v>
       </c>
@@ -79966,7 +79967,7 @@
         <v>1.5983608</v>
       </c>
     </row>
-    <row r="234" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>348</v>
       </c>
@@ -80301,7 +80302,7 @@
         <v>1.0240579999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>349</v>
       </c>
@@ -80633,7 +80634,7 @@
         <v>1.5168893999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>350</v>
       </c>
@@ -80965,7 +80966,7 @@
         <v>1.4017455999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>351</v>
       </c>
@@ -81300,7 +81301,7 @@
         <v>1.8415876</v>
       </c>
     </row>
-    <row r="238" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>352</v>
       </c>
@@ -81635,7 +81636,7 @@
         <v>1.65388</v>
       </c>
     </row>
-    <row r="239" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>353</v>
       </c>
@@ -81970,7 +81971,7 @@
         <v>1.684415</v>
       </c>
     </row>
-    <row r="240" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>354</v>
       </c>
@@ -82305,7 +82306,7 @@
         <v>1.3621087999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>355</v>
       </c>
@@ -82640,7 +82641,7 @@
         <v>1.8435732</v>
       </c>
     </row>
-    <row r="242" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>356</v>
       </c>
@@ -82975,7 +82976,7 @@
         <v>1.4398911999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>357</v>
       </c>
@@ -83310,7 +83311,7 @@
         <v>1.4065072000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>358</v>
       </c>
@@ -83642,7 +83643,7 @@
         <v>1.5860448</v>
       </c>
     </row>
-    <row r="245" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>359</v>
       </c>
@@ -83977,7 +83978,7 @@
         <v>1.8086340000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>360</v>
       </c>
@@ -84312,7 +84313,7 @@
         <v>1.8846837000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>210</v>
       </c>
@@ -84644,7 +84645,7 @@
         <v>1.3895484</v>
       </c>
     </row>
-    <row r="248" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>361</v>
       </c>
@@ -84979,7 +84980,7 @@
         <v>1.425081</v>
       </c>
     </row>
-    <row r="249" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>362</v>
       </c>
@@ -85314,7 +85315,7 @@
         <v>1.4464170000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>363</v>
       </c>
@@ -85649,7 +85650,7 @@
         <v>1.4481774000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>364</v>
       </c>
@@ -85984,7 +85985,7 @@
         <v>1.4751582000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>365</v>
       </c>
@@ -86319,7 +86320,7 @@
         <v>1.7787033999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>366</v>
       </c>
@@ -86989,7 +86990,7 @@
         <v>1.3136703999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>368</v>
       </c>
@@ -87324,7 +87325,7 @@
         <v>1.5486816000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>369</v>
       </c>
@@ -87659,7 +87660,7 @@
         <v>1.0190836000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>370</v>
       </c>
@@ -87994,7 +87995,7 @@
         <v>1.462272</v>
       </c>
     </row>
-    <row r="258" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>371</v>
       </c>
@@ -88329,7 +88330,7 @@
         <v>1.4430719999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>372</v>
       </c>
@@ -88664,7 +88665,7 @@
         <v>2.0489668000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>373</v>
       </c>
@@ -88999,7 +89000,7 @@
         <v>1.7187456000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>374</v>
       </c>
@@ -89337,7 +89338,7 @@
         <v>2.6642524999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>375</v>
       </c>
@@ -89669,7 +89670,7 @@
         <v>1.5185337000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>376</v>
       </c>
@@ -90004,7 +90005,7 @@
         <v>1.8890392</v>
       </c>
     </row>
-    <row r="264" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>377</v>
       </c>
@@ -90339,7 +90340,7 @@
         <v>1.7937784000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>378</v>
       </c>
@@ -90674,7 +90675,7 @@
         <v>1.2560598999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>379</v>
       </c>
@@ -91009,7 +91010,7 @@
         <v>1.1401007999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>380</v>
       </c>
@@ -91344,7 +91345,7 @@
         <v>1.5890649999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>381</v>
       </c>
@@ -91679,7 +91680,7 @@
         <v>1.5699603</v>
       </c>
     </row>
-    <row r="269" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>382</v>
       </c>
@@ -92011,7 +92012,7 @@
         <v>1.5050969999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>383</v>
       </c>
@@ -92352,7 +92353,7 @@
         <v>2.9958216000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>384</v>
       </c>
@@ -92687,7 +92688,7 @@
         <v>1.7765291999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>385</v>
       </c>
@@ -93022,7 +93023,7 @@
         <v>1.285353</v>
       </c>
     </row>
-    <row r="273" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>386</v>
       </c>
@@ -93357,7 +93358,7 @@
         <v>1.3992241999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>387</v>
       </c>
@@ -93689,7 +93690,7 @@
         <v>1.855845</v>
       </c>
     </row>
-    <row r="275" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>388</v>
       </c>
@@ -94024,7 +94025,7 @@
         <v>1.468415</v>
       </c>
     </row>
-    <row r="276" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>389</v>
       </c>
@@ -94356,7 +94357,7 @@
         <v>2.0899011000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>390</v>
       </c>
@@ -94691,7 +94692,7 @@
         <v>1.654263</v>
       </c>
     </row>
-    <row r="278" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>391</v>
       </c>
@@ -95026,7 +95027,7 @@
         <v>1.3691808000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>392</v>
       </c>
@@ -95358,7 +95359,7 @@
         <v>1.4199143999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>393</v>
       </c>
@@ -95693,7 +95694,7 @@
         <v>1.5418115999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>394</v>
       </c>
@@ -96028,7 +96029,7 @@
         <v>1.8919174999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>395</v>
       </c>
@@ -96363,7 +96364,7 @@
         <v>1.4696876999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>396</v>
       </c>
@@ -96698,7 +96699,7 @@
         <v>1.7811360000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>397</v>
       </c>
@@ -97033,7 +97034,7 @@
         <v>1.5822972</v>
       </c>
     </row>
-    <row r="285" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>398</v>
       </c>
@@ -97368,7 +97369,7 @@
         <v>1.6293465</v>
       </c>
     </row>
-    <row r="286" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>399</v>
       </c>
@@ -97709,7 +97710,7 @@
         <v>2.7736619999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>400</v>
       </c>
@@ -98044,7 +98045,7 @@
         <v>1.2118142999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>401</v>
       </c>
@@ -98379,7 +98380,7 @@
         <v>1.550538</v>
       </c>
     </row>
-    <row r="289" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>402</v>
       </c>
@@ -98714,7 +98715,7 @@
         <v>1.5783503999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>403</v>
       </c>
@@ -99049,7 +99050,7 @@
         <v>1.8116372999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>404</v>
       </c>
@@ -99384,7 +99385,7 @@
         <v>1.4658195999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>405</v>
       </c>
@@ -99719,7 +99720,7 @@
         <v>1.4266814999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>406</v>
       </c>
@@ -100051,7 +100052,7 @@
         <v>1.6265057999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>407</v>
       </c>
@@ -100721,7 +100722,7 @@
         <v>1.2326967</v>
       </c>
     </row>
-    <row r="296" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>409</v>
       </c>
@@ -101053,7 +101054,7 @@
         <v>1.7597495999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>410</v>
       </c>
@@ -101391,7 +101392,7 @@
         <v>2.760173</v>
       </c>
     </row>
-    <row r="298" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>411</v>
       </c>
@@ -101726,7 +101727,7 @@
         <v>1.6514484</v>
       </c>
     </row>
-    <row r="299" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>412</v>
       </c>
@@ -102061,7 +102062,7 @@
         <v>1.8385225999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>413</v>
       </c>
@@ -102402,7 +102403,7 @@
         <v>2.8339903999999998</v>
       </c>
     </row>
-    <row r="301" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>414</v>
       </c>
@@ -102737,7 +102738,7 @@
         <v>1.6943512000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>415</v>
       </c>
@@ -103072,7 +103073,7 @@
         <v>1.5228999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>416</v>
       </c>
@@ -103413,7 +103414,7 @@
         <v>2.7654935000000012</v>
       </c>
     </row>
-    <row r="304" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>417</v>
       </c>
@@ -103753,6 +103754,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:DL304" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AML"/>
+        <filter val="AMR"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DL304">
       <sortCondition ref="I1:I304"/>
     </sortState>

--- a/AVG - hodnoty/Czechia_24-25.xlsx
+++ b/AVG - hodnoty/Czechia_24-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Aplikace/player_app/AVG - hodnoty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Football/Player_Rating/AVG - hodnoty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528AC2D6-EC46-9C49-A71E-45E8DF71C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B23B3-A833-EC4D-943D-AF17E66555FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2019,11 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:DL304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2382,7 +2381,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>1.1333156</v>
       </c>
     </row>
-    <row r="3" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>1.984818</v>
       </c>
     </row>
-    <row r="4" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>1.3865632000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>1.4928935999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>1.3606976</v>
       </c>
     </row>
-    <row r="10" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>1.2625383999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>1.3311716</v>
       </c>
     </row>
-    <row r="12" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>1.9462348</v>
       </c>
     </row>
-    <row r="13" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>1.3807056</v>
       </c>
     </row>
-    <row r="14" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>1.0502271999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>1.4694400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>1.6758651</v>
       </c>
     </row>
-    <row r="17" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>1.3904748</v>
       </c>
     </row>
-    <row r="18" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>0.90331740000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>1.3760208</v>
       </c>
     </row>
-    <row r="20" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>1.5162365</v>
       </c>
     </row>
-    <row r="21" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>1.2490197999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>0.94857600000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>1.2817584</v>
       </c>
     </row>
-    <row r="25" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>1.4931053999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>1.2312209000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>1.3279825000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>1.5969555</v>
       </c>
     </row>
-    <row r="30" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>1.5517821000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -12402,7 +12401,7 @@
         <v>1.0324344999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -12743,7 +12742,7 @@
         <v>2.7083186000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -13075,7 +13074,7 @@
         <v>1.4419512000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>1.2299089000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -13745,7 +13744,7 @@
         <v>1.4871167999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>1.8148896000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -14415,7 +14414,7 @@
         <v>0.924786</v>
       </c>
     </row>
-    <row r="38" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>1.5867686000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>1.0860306</v>
       </c>
     </row>
-    <row r="40" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -15743,7 +15742,7 @@
         <v>1.1349</v>
       </c>
     </row>
-    <row r="42" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>3.2453124999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -16419,7 +16418,7 @@
         <v>1.7001922</v>
       </c>
     </row>
-    <row r="44" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>1.1276196000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -17421,7 +17420,7 @@
         <v>1.1484156000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>2.5251735000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>1.1731076</v>
       </c>
     </row>
-    <row r="49" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -18423,7 +18422,7 @@
         <v>0.85731499999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>1.6032390000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -19093,7 +19092,7 @@
         <v>1.6331119999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -19760,7 +19759,7 @@
         <v>0.95919779999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -20092,7 +20091,7 @@
         <v>1.7781705999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -20424,7 +20423,7 @@
         <v>1.7855136</v>
       </c>
     </row>
-    <row r="56" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -20756,7 +20755,7 @@
         <v>1.3457242</v>
       </c>
     </row>
-    <row r="57" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -21091,7 +21090,7 @@
         <v>1.4468947999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -21426,7 +21425,7 @@
         <v>1.6391808000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -21761,7 +21760,7 @@
         <v>1.2701472</v>
       </c>
     </row>
-    <row r="60" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -22096,7 +22095,7 @@
         <v>1.5939635999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>1.4456016</v>
       </c>
     </row>
-    <row r="62" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>176</v>
       </c>
@@ -22766,7 +22765,7 @@
         <v>1.7593524</v>
       </c>
     </row>
-    <row r="63" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -23101,7 +23100,7 @@
         <v>1.2804374999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -23768,7 +23767,7 @@
         <v>1.0911207000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -24438,7 +24437,7 @@
         <v>1.3334816</v>
       </c>
     </row>
-    <row r="68" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -24773,7 +24772,7 @@
         <v>2.0215295000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>183</v>
       </c>
@@ -25111,7 +25110,7 @@
         <v>2.9355536999999989</v>
       </c>
     </row>
-    <row r="70" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>184</v>
       </c>
@@ -25446,7 +25445,7 @@
         <v>1.51125</v>
       </c>
     </row>
-    <row r="71" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -25778,7 +25777,7 @@
         <v>1.6088</v>
       </c>
     </row>
-    <row r="72" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -26113,7 +26112,7 @@
         <v>1.2765118</v>
       </c>
     </row>
-    <row r="73" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -26448,7 +26447,7 @@
         <v>0.80381400000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -26780,7 +26779,7 @@
         <v>1.450421</v>
       </c>
     </row>
-    <row r="75" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -27447,7 +27446,7 @@
         <v>1.236183</v>
       </c>
     </row>
-    <row r="77" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -27782,7 +27781,7 @@
         <v>1.3902083999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>192</v>
       </c>
@@ -28114,7 +28113,7 @@
         <v>1.6445052</v>
       </c>
     </row>
-    <row r="79" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -28449,7 +28448,7 @@
         <v>1.820136</v>
       </c>
     </row>
-    <row r="80" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -28778,7 +28777,7 @@
         <v>1.5729139999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>195</v>
       </c>
@@ -29113,7 +29112,7 @@
         <v>1.3664871000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>196</v>
       </c>
@@ -30118,7 +30117,7 @@
         <v>1.3040590000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>199</v>
       </c>
@@ -30450,7 +30449,7 @@
         <v>1.3670802</v>
       </c>
     </row>
-    <row r="86" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -30782,7 +30781,7 @@
         <v>1.4299679999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -31123,7 +31122,7 @@
         <v>2.7619832</v>
       </c>
     </row>
-    <row r="88" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -31455,7 +31454,7 @@
         <v>1.4086692999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -31790,7 +31789,7 @@
         <v>0.93687759999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -32125,7 +32124,7 @@
         <v>1.1322810999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -32460,7 +32459,7 @@
         <v>0.95588010000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -32792,7 +32791,7 @@
         <v>1.0974906</v>
       </c>
     </row>
-    <row r="93" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -33124,7 +33123,7 @@
         <v>0.84574490000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>208</v>
       </c>
@@ -33465,7 +33464,7 @@
         <v>2.809151</v>
       </c>
     </row>
-    <row r="95" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>209</v>
       </c>
@@ -33800,7 +33799,7 @@
         <v>1.9309966999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>210</v>
       </c>
@@ -34135,7 +34134,7 @@
         <v>1.0541039999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>211</v>
       </c>
@@ -34476,7 +34475,7 @@
         <v>2.5435405000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -35143,7 +35142,7 @@
         <v>1.27857</v>
       </c>
     </row>
-    <row r="100" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>214</v>
       </c>
@@ -35478,7 +35477,7 @@
         <v>1.41476</v>
       </c>
     </row>
-    <row r="101" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>215</v>
       </c>
@@ -35813,7 +35812,7 @@
         <v>0.99331699999999989</v>
       </c>
     </row>
-    <row r="102" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -36148,7 +36147,7 @@
         <v>1.2042888</v>
       </c>
     </row>
-    <row r="103" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>217</v>
       </c>
@@ -36483,7 +36482,7 @@
         <v>1.5190091999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -36815,7 +36814,7 @@
         <v>0.78526800000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -37150,7 +37149,7 @@
         <v>1.1722239999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -37482,7 +37481,7 @@
         <v>1.80084</v>
       </c>
     </row>
-    <row r="107" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -37814,7 +37813,7 @@
         <v>1.2553692000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -38146,7 +38145,7 @@
         <v>1.3452576000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -38475,7 +38474,7 @@
         <v>1.7297534000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>224</v>
       </c>
@@ -39142,7 +39141,7 @@
         <v>1.1429152</v>
       </c>
     </row>
-    <row r="112" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>226</v>
       </c>
@@ -39477,7 +39476,7 @@
         <v>1.396652</v>
       </c>
     </row>
-    <row r="113" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -39812,7 +39811,7 @@
         <v>1.3895801999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -40147,7 +40146,7 @@
         <v>1.1807795999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -40817,7 +40816,7 @@
         <v>1.1430651000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -41152,7 +41151,7 @@
         <v>1.1399264</v>
       </c>
     </row>
-    <row r="118" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -41487,7 +41486,7 @@
         <v>1.3634244</v>
       </c>
     </row>
-    <row r="119" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -41822,7 +41821,7 @@
         <v>1.0777444</v>
       </c>
     </row>
-    <row r="120" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>234</v>
       </c>
@@ -42157,7 +42156,7 @@
         <v>1.1645513999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>235</v>
       </c>
@@ -42489,7 +42488,7 @@
         <v>1.9980671999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>236</v>
       </c>
@@ -42824,7 +42823,7 @@
         <v>1.4010822000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -43159,7 +43158,7 @@
         <v>1.7324934000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>238</v>
       </c>
@@ -43494,7 +43493,7 @@
         <v>1.4251644000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -43829,7 +43828,7 @@
         <v>1.8107712</v>
       </c>
     </row>
-    <row r="126" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>240</v>
       </c>
@@ -44164,7 +44163,7 @@
         <v>1.6559244</v>
       </c>
     </row>
-    <row r="127" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -44499,7 +44498,7 @@
         <v>1.3160982000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -45166,7 +45165,7 @@
         <v>1.3299281999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>244</v>
       </c>
@@ -45498,7 +45497,7 @@
         <v>1.38168</v>
       </c>
     </row>
-    <row r="131" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>245</v>
       </c>
@@ -45833,7 +45832,7 @@
         <v>1.189929</v>
       </c>
     </row>
-    <row r="132" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>246</v>
       </c>
@@ -46168,7 +46167,7 @@
         <v>0.91947079999999992</v>
       </c>
     </row>
-    <row r="133" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>247</v>
       </c>
@@ -46835,7 +46834,7 @@
         <v>1.4051153999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>249</v>
       </c>
@@ -47170,7 +47169,7 @@
         <v>1.4009541000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>250</v>
       </c>
@@ -47505,7 +47504,7 @@
         <v>1.417143</v>
       </c>
     </row>
-    <row r="137" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>251</v>
       </c>
@@ -47840,7 +47839,7 @@
         <v>1.7533197</v>
       </c>
     </row>
-    <row r="138" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -48175,7 +48174,7 @@
         <v>1.506753</v>
       </c>
     </row>
-    <row r="139" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -48507,7 +48506,7 @@
         <v>1.9695967999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>254</v>
       </c>
@@ -49177,7 +49176,7 @@
         <v>1.2109125000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>256</v>
       </c>
@@ -49509,7 +49508,7 @@
         <v>1.3416600000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>257</v>
       </c>
@@ -49844,7 +49843,7 @@
         <v>1.9370468000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>258</v>
       </c>
@@ -50179,7 +50178,7 @@
         <v>1.4252009000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>259</v>
       </c>
@@ -50514,7 +50513,7 @@
         <v>1.2761496000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>260</v>
       </c>
@@ -50846,7 +50845,7 @@
         <v>1.071728</v>
       </c>
     </row>
-    <row r="147" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -51181,7 +51180,7 @@
         <v>1.1582171999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>262</v>
       </c>
@@ -51848,7 +51847,7 @@
         <v>1.1797924</v>
       </c>
     </row>
-    <row r="150" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>264</v>
       </c>
@@ -52180,7 +52179,7 @@
         <v>1.3644780000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>265</v>
       </c>
@@ -52515,7 +52514,7 @@
         <v>1.365</v>
       </c>
     </row>
-    <row r="152" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>266</v>
       </c>
@@ -52850,7 +52849,7 @@
         <v>1.0049952</v>
       </c>
     </row>
-    <row r="153" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>267</v>
       </c>
@@ -53185,7 +53184,7 @@
         <v>1.6546075</v>
       </c>
     </row>
-    <row r="154" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>268</v>
       </c>
@@ -53526,7 +53525,7 @@
         <v>2.9544320000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>269</v>
       </c>
@@ -53861,7 +53860,7 @@
         <v>1.0729124999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>270</v>
       </c>
@@ -54531,7 +54530,7 @@
         <v>1.2518726</v>
       </c>
     </row>
-    <row r="158" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -54863,7 +54862,7 @@
         <v>1.5317388000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>273</v>
       </c>
@@ -55198,7 +55197,7 @@
         <v>1.6319016</v>
       </c>
     </row>
-    <row r="160" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -55533,7 +55532,7 @@
         <v>1.399413</v>
       </c>
     </row>
-    <row r="161" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>275</v>
       </c>
@@ -55868,7 +55867,7 @@
         <v>1.4089338</v>
       </c>
     </row>
-    <row r="162" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>276</v>
       </c>
@@ -56538,7 +56537,7 @@
         <v>1.1652156</v>
       </c>
     </row>
-    <row r="164" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>278</v>
       </c>
@@ -56873,7 +56872,7 @@
         <v>1.5064413000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>279</v>
       </c>
@@ -57208,7 +57207,7 @@
         <v>1.4783588999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>280</v>
       </c>
@@ -57540,7 +57539,7 @@
         <v>1.447999</v>
       </c>
     </row>
-    <row r="167" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>281</v>
       </c>
@@ -57872,7 +57871,7 @@
         <v>1.7941886</v>
       </c>
     </row>
-    <row r="168" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>282</v>
       </c>
@@ -58204,7 +58203,7 @@
         <v>1.5420216</v>
       </c>
     </row>
-    <row r="169" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>283</v>
       </c>
@@ -58539,7 +58538,7 @@
         <v>1.8427450000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>284</v>
       </c>
@@ -59209,7 +59208,7 @@
         <v>1.2876064</v>
       </c>
     </row>
-    <row r="172" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>286</v>
       </c>
@@ -59544,7 +59543,7 @@
         <v>1.074276</v>
       </c>
     </row>
-    <row r="173" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>287</v>
       </c>
@@ -59885,7 +59884,7 @@
         <v>3.2081279999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>288</v>
       </c>
@@ -60226,7 +60225,7 @@
         <v>2.7698946000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>289</v>
       </c>
@@ -60564,7 +60563,7 @@
         <v>2.7339924</v>
       </c>
     </row>
-    <row r="176" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>290</v>
       </c>
@@ -60899,7 +60898,7 @@
         <v>1.8095633</v>
       </c>
     </row>
-    <row r="177" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>291</v>
       </c>
@@ -61234,7 +61233,7 @@
         <v>1.7623143999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>292</v>
       </c>
@@ -61566,7 +61565,7 @@
         <v>1.5251416</v>
       </c>
     </row>
-    <row r="179" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>293</v>
       </c>
@@ -61898,7 +61897,7 @@
         <v>1.7696938</v>
       </c>
     </row>
-    <row r="180" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>294</v>
       </c>
@@ -62230,7 +62229,7 @@
         <v>1.8679545</v>
       </c>
     </row>
-    <row r="181" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>295</v>
       </c>
@@ -62571,7 +62570,7 @@
         <v>3.1280114999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>296</v>
       </c>
@@ -62906,7 +62905,7 @@
         <v>1.4590182</v>
       </c>
     </row>
-    <row r="183" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>297</v>
       </c>
@@ -63241,7 +63240,7 @@
         <v>1.0313323999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>298</v>
       </c>
@@ -63911,7 +63910,7 @@
         <v>1.2788447000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>300</v>
       </c>
@@ -64587,7 +64586,7 @@
         <v>1.1261836000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>302</v>
       </c>
@@ -64916,7 +64915,7 @@
         <v>1.7260705000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>303</v>
       </c>
@@ -65251,7 +65250,7 @@
         <v>1.7770045999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>304</v>
       </c>
@@ -65586,7 +65585,7 @@
         <v>1.2869769</v>
       </c>
     </row>
-    <row r="191" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>305</v>
       </c>
@@ -66262,7 +66261,7 @@
         <v>1.2202345000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>307</v>
       </c>
@@ -66591,7 +66590,7 @@
         <v>1.3548127999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>308</v>
       </c>
@@ -66923,7 +66922,7 @@
         <v>1.9509951999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>309</v>
       </c>
@@ -67593,7 +67592,7 @@
         <v>1.4923662</v>
       </c>
     </row>
-    <row r="197" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>311</v>
       </c>
@@ -67928,7 +67927,7 @@
         <v>1.8951152</v>
       </c>
     </row>
-    <row r="198" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>312</v>
       </c>
@@ -68263,7 +68262,7 @@
         <v>1.7060362</v>
       </c>
     </row>
-    <row r="199" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>313</v>
       </c>
@@ -68936,7 +68935,7 @@
         <v>1.1953457999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>315</v>
       </c>
@@ -69271,7 +69270,7 @@
         <v>1.1963592000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>316</v>
       </c>
@@ -69938,7 +69937,7 @@
         <v>0.96353100000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>318</v>
       </c>
@@ -70273,7 +70272,7 @@
         <v>1.6937561999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>319</v>
       </c>
@@ -70608,7 +70607,7 @@
         <v>1.6964079000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>320</v>
       </c>
@@ -70940,7 +70939,7 @@
         <v>1.2818666000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>321</v>
       </c>
@@ -71275,7 +71274,7 @@
         <v>1.460985</v>
       </c>
     </row>
-    <row r="208" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>322</v>
       </c>
@@ -71610,7 +71609,7 @@
         <v>1.2408235000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>323</v>
       </c>
@@ -71945,7 +71944,7 @@
         <v>1.6629522000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>324</v>
       </c>
@@ -72277,7 +72276,7 @@
         <v>1.5740164000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>325</v>
       </c>
@@ -72947,7 +72946,7 @@
         <v>1.4259275</v>
       </c>
     </row>
-    <row r="213" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>327</v>
       </c>
@@ -73282,7 +73281,7 @@
         <v>1.6346882</v>
       </c>
     </row>
-    <row r="214" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>328</v>
       </c>
@@ -73623,7 +73622,7 @@
         <v>3.0561440000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>329</v>
       </c>
@@ -73958,7 +73957,7 @@
         <v>2.8147199999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>330</v>
       </c>
@@ -74293,7 +74292,7 @@
         <v>1.6554096</v>
       </c>
     </row>
-    <row r="217" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>331</v>
       </c>
@@ -74625,7 +74624,7 @@
         <v>1.4648810000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>332</v>
       </c>
@@ -74960,7 +74959,7 @@
         <v>1.7759064</v>
       </c>
     </row>
-    <row r="219" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>333</v>
       </c>
@@ -75624,7 +75623,7 @@
         <v>1.1419805000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>335</v>
       </c>
@@ -75956,7 +75955,7 @@
         <v>1.3801600000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>336</v>
       </c>
@@ -76623,7 +76622,7 @@
         <v>1.2740275999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>338</v>
       </c>
@@ -77293,7 +77292,7 @@
         <v>1.3807815999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>340</v>
       </c>
@@ -77628,7 +77627,7 @@
         <v>1.6715603999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>341</v>
       </c>
@@ -77960,7 +77959,7 @@
         <v>1.076579</v>
       </c>
     </row>
-    <row r="228" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>342</v>
       </c>
@@ -78295,7 +78294,7 @@
         <v>1.6493424000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>343</v>
       </c>
@@ -78965,7 +78964,7 @@
         <v>1.3982939999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>345</v>
       </c>
@@ -79297,7 +79296,7 @@
         <v>1.8967225999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>346</v>
       </c>
@@ -79632,7 +79631,7 @@
         <v>1.1213951</v>
       </c>
     </row>
-    <row r="233" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>347</v>
       </c>
@@ -79967,7 +79966,7 @@
         <v>1.5983608</v>
       </c>
     </row>
-    <row r="234" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>348</v>
       </c>
@@ -80302,7 +80301,7 @@
         <v>1.0240579999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>349</v>
       </c>
@@ -80634,7 +80633,7 @@
         <v>1.5168893999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>350</v>
       </c>
@@ -80966,7 +80965,7 @@
         <v>1.4017455999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>351</v>
       </c>
@@ -81301,7 +81300,7 @@
         <v>1.8415876</v>
       </c>
     </row>
-    <row r="238" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>352</v>
       </c>
@@ -81636,7 +81635,7 @@
         <v>1.65388</v>
       </c>
     </row>
-    <row r="239" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>353</v>
       </c>
@@ -81971,7 +81970,7 @@
         <v>1.684415</v>
       </c>
     </row>
-    <row r="240" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>354</v>
       </c>
@@ -82306,7 +82305,7 @@
         <v>1.3621087999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>355</v>
       </c>
@@ -82641,7 +82640,7 @@
         <v>1.8435732</v>
       </c>
     </row>
-    <row r="242" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>356</v>
       </c>
@@ -82976,7 +82975,7 @@
         <v>1.4398911999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>357</v>
       </c>
@@ -83311,7 +83310,7 @@
         <v>1.4065072000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>358</v>
       </c>
@@ -83643,7 +83642,7 @@
         <v>1.5860448</v>
       </c>
     </row>
-    <row r="245" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>359</v>
       </c>
@@ -83978,7 +83977,7 @@
         <v>1.8086340000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>360</v>
       </c>
@@ -84313,7 +84312,7 @@
         <v>1.8846837000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>210</v>
       </c>
@@ -84645,7 +84644,7 @@
         <v>1.3895484</v>
       </c>
     </row>
-    <row r="248" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>361</v>
       </c>
@@ -84980,7 +84979,7 @@
         <v>1.425081</v>
       </c>
     </row>
-    <row r="249" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>362</v>
       </c>
@@ -85315,7 +85314,7 @@
         <v>1.4464170000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>363</v>
       </c>
@@ -85650,7 +85649,7 @@
         <v>1.4481774000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>364</v>
       </c>
@@ -85985,7 +85984,7 @@
         <v>1.4751582000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>365</v>
       </c>
@@ -86320,7 +86319,7 @@
         <v>1.7787033999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>366</v>
       </c>
@@ -86990,7 +86989,7 @@
         <v>1.3136703999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>368</v>
       </c>
@@ -87325,7 +87324,7 @@
         <v>1.5486816000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>369</v>
       </c>
@@ -87660,7 +87659,7 @@
         <v>1.0190836000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>370</v>
       </c>
@@ -87995,7 +87994,7 @@
         <v>1.462272</v>
       </c>
     </row>
-    <row r="258" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>371</v>
       </c>
@@ -88330,7 +88329,7 @@
         <v>1.4430719999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>372</v>
       </c>
@@ -88665,7 +88664,7 @@
         <v>2.0489668000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>373</v>
       </c>
@@ -89000,7 +88999,7 @@
         <v>1.7187456000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>374</v>
       </c>
@@ -89338,7 +89337,7 @@
         <v>2.6642524999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>375</v>
       </c>
@@ -89670,7 +89669,7 @@
         <v>1.5185337000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>376</v>
       </c>
@@ -90005,7 +90004,7 @@
         <v>1.8890392</v>
       </c>
     </row>
-    <row r="264" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>377</v>
       </c>
@@ -90340,7 +90339,7 @@
         <v>1.7937784000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>378</v>
       </c>
@@ -90675,7 +90674,7 @@
         <v>1.2560598999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>379</v>
       </c>
@@ -91010,7 +91009,7 @@
         <v>1.1401007999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>380</v>
       </c>
@@ -91345,7 +91344,7 @@
         <v>1.5890649999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>381</v>
       </c>
@@ -91680,7 +91679,7 @@
         <v>1.5699603</v>
       </c>
     </row>
-    <row r="269" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>382</v>
       </c>
@@ -92012,7 +92011,7 @@
         <v>1.5050969999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>383</v>
       </c>
@@ -92353,7 +92352,7 @@
         <v>2.9958216000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>384</v>
       </c>
@@ -92688,7 +92687,7 @@
         <v>1.7765291999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>385</v>
       </c>
@@ -93023,7 +93022,7 @@
         <v>1.285353</v>
       </c>
     </row>
-    <row r="273" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>386</v>
       </c>
@@ -93358,7 +93357,7 @@
         <v>1.3992241999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>387</v>
       </c>
@@ -93690,7 +93689,7 @@
         <v>1.855845</v>
       </c>
     </row>
-    <row r="275" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>388</v>
       </c>
@@ -94025,7 +94024,7 @@
         <v>1.468415</v>
       </c>
     </row>
-    <row r="276" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>389</v>
       </c>
@@ -94357,7 +94356,7 @@
         <v>2.0899011000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>390</v>
       </c>
@@ -94692,7 +94691,7 @@
         <v>1.654263</v>
       </c>
     </row>
-    <row r="278" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>391</v>
       </c>
@@ -95027,7 +95026,7 @@
         <v>1.3691808000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>392</v>
       </c>
@@ -95359,7 +95358,7 @@
         <v>1.4199143999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>393</v>
       </c>
@@ -95694,7 +95693,7 @@
         <v>1.5418115999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>394</v>
       </c>
@@ -96029,7 +96028,7 @@
         <v>1.8919174999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>395</v>
       </c>
@@ -96364,7 +96363,7 @@
         <v>1.4696876999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>396</v>
       </c>
@@ -96699,7 +96698,7 @@
         <v>1.7811360000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>397</v>
       </c>
@@ -97034,7 +97033,7 @@
         <v>1.5822972</v>
       </c>
     </row>
-    <row r="285" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>398</v>
       </c>
@@ -97369,7 +97368,7 @@
         <v>1.6293465</v>
       </c>
     </row>
-    <row r="286" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>399</v>
       </c>
@@ -97710,7 +97709,7 @@
         <v>2.7736619999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>400</v>
       </c>
@@ -98045,7 +98044,7 @@
         <v>1.2118142999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>401</v>
       </c>
@@ -98380,7 +98379,7 @@
         <v>1.550538</v>
       </c>
     </row>
-    <row r="289" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>402</v>
       </c>
@@ -98715,7 +98714,7 @@
         <v>1.5783503999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>403</v>
       </c>
@@ -99050,7 +99049,7 @@
         <v>1.8116372999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>404</v>
       </c>
@@ -99385,7 +99384,7 @@
         <v>1.4658195999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>405</v>
       </c>
@@ -99720,7 +99719,7 @@
         <v>1.4266814999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>406</v>
       </c>
@@ -100052,7 +100051,7 @@
         <v>1.6265057999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>407</v>
       </c>
@@ -100722,7 +100721,7 @@
         <v>1.2326967</v>
       </c>
     </row>
-    <row r="296" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>409</v>
       </c>
@@ -101054,7 +101053,7 @@
         <v>1.7597495999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>410</v>
       </c>
@@ -101392,7 +101391,7 @@
         <v>2.760173</v>
       </c>
     </row>
-    <row r="298" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>411</v>
       </c>
@@ -101727,7 +101726,7 @@
         <v>1.6514484</v>
       </c>
     </row>
-    <row r="299" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>412</v>
       </c>
@@ -102062,7 +102061,7 @@
         <v>1.8385225999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>413</v>
       </c>
@@ -102403,7 +102402,7 @@
         <v>2.8339903999999998</v>
       </c>
     </row>
-    <row r="301" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>414</v>
       </c>
@@ -102738,7 +102737,7 @@
         <v>1.6943512000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>415</v>
       </c>
@@ -103073,7 +103072,7 @@
         <v>1.5228999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>416</v>
       </c>
@@ -103414,7 +103413,7 @@
         <v>2.7654935000000012</v>
       </c>
     </row>
-    <row r="304" spans="1:116" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>417</v>
       </c>
@@ -103754,12 +103753,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:DL304" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="AML"/>
-        <filter val="AMR"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DL304">
       <sortCondition ref="I1:I304"/>
     </sortState>
